--- a/nriss-patch-1/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>PractitionerRole.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.1.0}
 </t>
   </si>
   <si>
@@ -656,7 +656,7 @@
     <t>TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -775,7 +775,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice|2.1.0</t>
   </si>
   <si>
     <t>rôle</t>
@@ -847,7 +847,7 @@
     <t>PractitionerRole.code.extension:TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS|20250523120000</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -923,7 +923,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.1.0</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -938,7 +938,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.1.0)
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.73828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1495,7 +1495,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.12890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
